--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Joe Wilson</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +590,9 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1465,7 +1470,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD297F4-AC4C-480A-912D-037144B80DCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2BA56D2-E393-4911-ABA9-4F183065694F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Why</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +596,9 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1470,7 +1475,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2BA56D2-E393-4911-ABA9-4F183065694F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB34C923-DCD4-4099-90EA-F85746100889}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Why</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not </t>
+  </si>
+  <si>
+    <t>Working</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,8 +605,12 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1475,7 +1485,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB34C923-DCD4-4099-90EA-F85746100889}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98CF8A83-1123-4E09-9511-C888B0ECF7D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
